--- a/diplom/ноябрь/models_results_optimized.xlsx
+++ b/diplom/ноябрь/models_results_optimized.xlsx
@@ -507,7 +507,7 @@
         <v>28</v>
       </c>
       <c r="B9" t="n">
-        <v>23.02536311525417</v>
+        <v>23.02536311525416</v>
       </c>
     </row>
     <row r="10">
@@ -531,7 +531,7 @@
         <v>28</v>
       </c>
       <c r="B12" t="n">
-        <v>28.32302963017573</v>
+        <v>28.32302963017574</v>
       </c>
     </row>
     <row r="13">
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.388001773096091</v>
+        <v>9.388001773096095</v>
       </c>
     </row>
     <row r="3">
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.722763975842976</v>
+        <v>2.722763975842977</v>
       </c>
     </row>
   </sheetData>
